--- a/Question_Set2/Role-specific skills/Penetration Testing.xlsx
+++ b/Question_Set2/Role-specific skills/Penetration Testing.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'During a pentest, you were able to exfiltrate hashed credentials from their SQL database and crack them using a rainbow table. After seeing the pentest results, the client asks you how they can protect leaked credential hashes from rainbow tables.  How would you help them mitigate this kind of attack in the future?', 'ques_type': 2, 'options': ['Help their developers implement password salting.', 'Discourage cracking by mandating that all passwords include numbers and special characters.', 'Implement a NoSQL database like MongoDB or Redis.', 'Remove hashes so attackers must use a dictionary attack instead of a rainbow table.'], 'score': 'Help their developers implement password salting.'}, {'title': 'While testing a web-based chat application, you discover that you can send messages to other users that execute JavaScript in their browser when the recipient opens the message. You want to go further and see what you can do with this new-found vulnerability. What is a good strategy for escalating this vulnerability?', 'ques_type': 2, 'options': ['Check the site’s SSL certificate to see if it has certificate pinning.', 'Craft Check the site’s database for encryption to see if you can crack them.', 'Check whether cookies are HTTP-only to see if you can hijack sessions.', 'Check whether the site uses HSTS (HTTP Strict Transport Security) so you can sslstrip the domain.'], 'score': 'Check whether cookies are HTTP-only to see if you can hijack sessions.'}, {'title': 'You are crafting a malicious npm package that will run your code whenever someone installs the package on their machine via the command npm install.  How should you make sure the payload code executes when victims install your package?', 'ques_type': 2, 'options': ['Add the payload to the makefile.', 'Upload the package to PyPI (Python Package Index) so pip can access it.', 'Hack into the target’s machine beforehand and install the payload.', 'Add it as an install script in package.json.'], 'score': 'Add it as an install script in package.json.'}, {'title': 'A client provides you with a list of domains that are “in-scope.” However, while testing their mobile app, you notice that the application often makes requests to an API whose domain is not listed among the “in-scope” domains. True or false: You should also test this domain for vulnerabilities to ensure you cover everything.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "During a pentest, you were able to exfiltrate hashed credentials from their SQL database and crack them using a rainbow table. After seeing the pentest results, the client asks you how they can protect leaked credential hashes from rainbow tables.  How would you help them mitigate this kind of attack in the future?",
+        "ques_type": 2,
+        "options": [
+            "Help their developers implement password salting.",
+            "Discourage cracking by mandating that all passwords include numbers and special characters.",
+            "Implement a NoSQL database like MongoDB or Redis.",
+            "Remove hashes so attackers must use a dictionary attack instead of a rainbow table."
+        ],
+        "score": "Help their developers implement password salting."
+    },
+    {
+        "title": "While testing a web-based chat application, you discover that you can send messages to other users that execute JavaScript in their browser when the recipient opens the message. You want to go further and see what you can do with this new-found vulnerability. What is a good strategy for escalating this vulnerability?",
+        "ques_type": 2,
+        "options": [
+            "Check the site\u2019s SSL certificate to see if it has certificate pinning.",
+            "Craft Check the site\u2019s database for encryption to see if you can crack them.",
+            "Check whether cookies are HTTP-only to see if you can hijack sessions.",
+            "Check whether the site uses HSTS (HTTP Strict Transport Security) so you can sslstrip the domain."
+        ],
+        "score": "Check whether cookies are HTTP-only to see if you can hijack sessions."
+    },
+    {
+        "title": "You are crafting a malicious npm package that will run your code whenever someone installs the package on their machine via the command npm install.  How should you make sure the payload code executes when victims install your package?",
+        "ques_type": 2,
+        "options": [
+            "Add the payload to the makefile.",
+            "Upload the package to PyPI (Python Package Index) so pip can access it.",
+            "Hack into the target\u2019s machine beforehand and install the payload.",
+            "Add it as an install script in package.json."
+        ],
+        "score": "Add it as an install script in package.json."
+    },
+    {
+        "title": "A client provides you with a list of domains that are \u201cin-scope.\u201d However, while testing their mobile app, you notice that the application often makes requests to an API whose domain is not listed among the \u201cin-scope\u201d domains. True or false: You should also test this domain for vulnerabilities to ensure you cover everything.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
